--- a/data/trans_orig/P16B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCFB0BC-9EB6-4487-881E-E8262E374B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5208E7E1-3A4A-4877-824A-3F115F7D122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F506074-7DF8-4E44-AB5F-B66E35C6F290}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27CCF3CF-EC8D-4961-B1F2-8867F24A042F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="254">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>89,75%</t>
   </si>
   <si>
-    <t>56,71%</t>
+    <t>55,01%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>67,06%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>43,29%</t>
+    <t>44,99%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>32,94%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,43 +124,43 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>41,44%</t>
+    <t>42,31%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>42,85%</t>
+    <t>42,62%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>58,56%</t>
+    <t>57,69%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>57,15%</t>
+    <t>57,38%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -172,13 +172,13 @@
     <t>91,35%</t>
   </si>
   <si>
-    <t>56,58%</t>
+    <t>63,21%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>80,75%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -187,13 +187,13 @@
     <t>8,65%</t>
   </si>
   <si>
-    <t>43,42%</t>
+    <t>36,79%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>19,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -205,13 +205,13 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>76,01%</t>
+    <t>76,25%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>87,69%</t>
+    <t>85,17%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -220,13 +220,13 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>23,99%</t>
+    <t>23,75%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>12,31%</t>
+    <t>14,83%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,13 +238,13 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>71,54%</t>
+    <t>71,81%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>87,6%</t>
+    <t>87,17%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -253,13 +253,13 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>28,46%</t>
+    <t>28,19%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>12,83%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -268,52 +268,52 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>84,58%</t>
+    <t>84,77%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,39%</t>
+    <t>92,04%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>91,7%</t>
+    <t>91,85%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>15,23%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>9,61%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>8,3%</t>
+    <t>8,15%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,16%</t>
+    <t>89,79%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -322,19 +322,19 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>4,75%</t>
@@ -343,16 +343,16 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>9,84%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -625,7 +625,7 @@
     <t>81,77%</t>
   </si>
   <si>
-    <t>37,82%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -634,13 +634,13 @@
     <t>90,91%</t>
   </si>
   <si>
-    <t>66,52%</t>
+    <t>59,53%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>62,18%</t>
+    <t>62,14%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -649,79 +649,79 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>33,48%</t>
+    <t>40,47%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>48,18%</t>
+    <t>53,97%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>74,31%</t>
+    <t>74,18%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>51,82%</t>
+    <t>46,03%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>25,69%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>46,66%</t>
+    <t>45,9%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>63,02%</t>
+    <t>67,69%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>53,34%</t>
+    <t>54,1%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>36,98%</t>
+    <t>32,31%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -730,13 +730,13 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>92,19%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>94,98%</t>
+    <t>94,17%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -745,67 +745,61 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>5,83%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>1,83%</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FBFA85-DA44-4C2A-A5AC-0CB4805FCE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6E1915-E04E-4F1B-B13F-B64C8C61BEF2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2436,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF1D2C-3041-4E38-86D1-537601537644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435661D3-4F8E-41AB-BEB8-27F6FFFC4A80}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,7 +3649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58048C8-E2AB-494E-98C4-69695D6853D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C2FD6-A95E-406F-883A-315303DD92E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4742,10 +4736,10 @@
         <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4754,13 @@
         <v>5618</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -4775,13 +4769,13 @@
         <v>3976</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4790,13 +4784,13 @@
         <v>9594</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5208E7E1-3A4A-4877-824A-3F115F7D122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{752563FC-D655-40FE-9ED2-6C3A84ABFFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27CCF3CF-EC8D-4961-B1F2-8867F24A042F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDD4CC1E-4ABC-4A49-9207-18FF1A4CEB77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="258">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>89,75%</t>
   </si>
   <si>
-    <t>55,01%</t>
+    <t>46,35%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>66,41%</t>
+    <t>64,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>44,99%</t>
+    <t>53,65%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>33,59%</t>
+    <t>35,04%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,43 +124,43 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>42,31%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>42,62%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>57,69%</t>
+    <t>58,35%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>57,38%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -172,13 +172,13 @@
     <t>91,35%</t>
   </si>
   <si>
-    <t>63,21%</t>
+    <t>57,16%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>80,75%</t>
+    <t>79,34%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -187,13 +187,13 @@
     <t>8,65%</t>
   </si>
   <si>
-    <t>36,79%</t>
+    <t>42,84%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>19,25%</t>
+    <t>20,66%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -205,13 +205,13 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>76,25%</t>
+    <t>76,64%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>85,17%</t>
+    <t>83,31%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -220,13 +220,13 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>23,75%</t>
+    <t>23,36%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>14,83%</t>
+    <t>16,69%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,13 +238,13 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>71,81%</t>
+    <t>82,52%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>87,17%</t>
+    <t>87,24%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -253,13 +253,13 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>28,19%</t>
+    <t>17,48%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>12,83%</t>
+    <t>12,76%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -268,43 +268,43 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>84,77%</t>
+    <t>86,35%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>92,04%</t>
+    <t>90,6%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>91,85%</t>
+    <t>92,88%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>13,65%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>9,4%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>8,15%</t>
+    <t>7,12%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,34%</t>
+    <t>87,23%</t>
   </si>
   <si>
     <t>98,93%</t>
@@ -313,19 +313,19 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>4,14%</t>
@@ -334,25 +334,25 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>11,66%</t>
+    <t>12,77%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -364,10 +364,10 @@
     <t>61,22%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -376,19 +376,19 @@
     <t>75,62%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>38,78%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -397,64 +397,64 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>67,58%</t>
+    <t>64,83%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>32,42%</t>
+    <t>35,17%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>68,15%</t>
+    <t>68,76%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -463,13 +463,13 @@
     <t>95,55%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>31,85%</t>
+    <t>31,24%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -478,49 +478,49 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>14,98%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>63,17%</t>
+    <t>74,4%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>81,9%</t>
+    <t>82,62%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>36,83%</t>
+    <t>25,6%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>18,1%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -535,7 +535,7 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>88,97%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -544,184 +544,190 @@
     <t>99,26%</t>
   </si>
   <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -730,13 +736,13 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>94,17%</t>
+    <t>94,99%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -745,61 +751,67 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>5,83%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>98,17%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6E1915-E04E-4F1B-B13F-B64C8C61BEF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60FC50-F9E5-4306-B158-056CD8890810}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2430,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435661D3-4F8E-41AB-BEB8-27F6FFFC4A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2116BC-DDB3-492C-BF21-4108DE11AD7F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3649,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C2FD6-A95E-406F-883A-315303DD92E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF94BB-FF92-4D3F-96BD-2D9B195E5532}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,10 +4420,10 @@
         <v>36067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4426,7 +4438,7 @@
         <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4444,13 +4456,13 @@
         <v>1166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4459,13 +4471,13 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4480,7 +4492,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4563,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4563,10 +4575,10 @@
         <v>64229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4578,10 +4590,10 @@
         <v>98657</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4605,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4614,13 +4626,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4629,13 +4641,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4715,13 @@
         <v>92292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4718,13 +4730,13 @@
         <v>134981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -4733,13 +4745,13 @@
         <v>227273</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4766,13 @@
         <v>5618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -4769,13 +4781,13 @@
         <v>3976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4784,13 +4796,13 @@
         <v>9594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{752563FC-D655-40FE-9ED2-6C3A84ABFFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0635F0-D11B-40AB-A9DE-D5CAF6A7CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDD4CC1E-4ABC-4A49-9207-18FF1A4CEB77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5A3EE65-EDC9-497A-8128-73D7BCA64752}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="256">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>89,75%</t>
   </si>
   <si>
-    <t>46,35%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>64,96%</t>
+    <t>67,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>53,65%</t>
+    <t>43,29%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>32,94%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,43 +124,43 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>41,44%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>42,68%</t>
+    <t>42,85%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>58,56%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>57,15%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -172,13 +172,13 @@
     <t>91,35%</t>
   </si>
   <si>
-    <t>57,16%</t>
+    <t>56,58%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>79,34%</t>
+    <t>84,04%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -187,13 +187,13 @@
     <t>8,65%</t>
   </si>
   <si>
-    <t>42,84%</t>
+    <t>43,42%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>20,66%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -205,13 +205,13 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>76,64%</t>
+    <t>76,01%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>83,31%</t>
+    <t>87,69%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -220,13 +220,13 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>23,36%</t>
+    <t>23,99%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>12,31%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,13 +238,13 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>82,52%</t>
+    <t>71,54%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>87,6%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -253,13 +253,13 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>17,48%</t>
+    <t>28,46%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -268,91 +268,91 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>86,35%</t>
+    <t>84,58%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,6%</t>
+    <t>90,39%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>92,88%</t>
+    <t>91,7%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>13,65%</t>
+    <t>15,42%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>9,4%</t>
+    <t>9,61%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>7,12%</t>
+    <t>8,3%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -364,10 +364,10 @@
     <t>61,22%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -376,19 +376,19 @@
     <t>75,62%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>38,78%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -397,64 +397,64 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>64,83%</t>
+    <t>67,58%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>35,17%</t>
+    <t>32,42%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>68,76%</t>
+    <t>68,15%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -463,13 +463,13 @@
     <t>95,55%</t>
   </si>
   <si>
-    <t>85,02%</t>
+    <t>85,44%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>31,24%</t>
+    <t>31,85%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -478,49 +478,49 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>14,98%</t>
+    <t>14,56%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>74,4%</t>
+    <t>63,17%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>82,62%</t>
+    <t>81,9%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>25,6%</t>
+    <t>36,83%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>17,38%</t>
+    <t>18,1%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -535,7 +535,7 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>88,97%</t>
+    <t>90,75%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -544,10 +544,10 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -556,22 +556,22 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,81%</t>
+    <t>95,8%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -580,19 +580,19 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -601,16 +601,16 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
@@ -625,7 +625,7 @@
     <t>81,77%</t>
   </si>
   <si>
-    <t>37,8%</t>
+    <t>37,82%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -634,13 +634,13 @@
     <t>90,91%</t>
   </si>
   <si>
-    <t>59,95%</t>
+    <t>66,52%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>62,2%</t>
+    <t>62,18%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -649,85 +649,79 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>40,05%</t>
+    <t>33,48%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>52,61%</t>
+    <t>48,18%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>73,61%</t>
+    <t>74,31%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>47,39%</t>
+    <t>51,82%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>26,39%</t>
+    <t>25,69%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>46,45%</t>
+    <t>46,66%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>65,91%</t>
+    <t>63,02%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>53,55%</t>
+    <t>53,34%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>34,09%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -736,13 +730,13 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,18%</t>
+    <t>91,08%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>94,98%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -751,67 +745,67 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>8,92%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E60FC50-F9E5-4306-B158-056CD8890810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F0CAC1-F0E1-4574-844A-2F423458F38C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2442,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2116BC-DDB3-492C-BF21-4108DE11AD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880D0BCB-2ADF-4D99-B95B-D701AA319CF3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3661,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF94BB-FF92-4D3F-96BD-2D9B195E5532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0952C0C6-8D94-403D-AA25-2B7911F31DA1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4420,10 +4414,10 @@
         <v>36067</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4438,7 +4432,7 @@
         <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4456,13 +4450,13 @@
         <v>1166</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4471,13 +4465,13 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4492,7 +4486,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4575,10 +4569,10 @@
         <v>64229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4590,10 +4584,10 @@
         <v>98657</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4617,7 +4611,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4626,13 +4620,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4641,13 +4635,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4709,13 @@
         <v>92292</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4730,13 +4724,13 @@
         <v>134981</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -4745,13 +4739,13 @@
         <v>227273</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4760,13 @@
         <v>5618</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -4781,13 +4775,13 @@
         <v>3976</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4796,13 +4790,13 @@
         <v>9594</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0635F0-D11B-40AB-A9DE-D5CAF6A7CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B34A3A-46B8-48AE-8110-8B58B6E57D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5A3EE65-EDC9-497A-8128-73D7BCA64752}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EDC80381-E4C7-495A-9C7C-739227B89C13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="275">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -118,7 +118,7 @@
     <t>32,94%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>78,12%</t>
@@ -163,7 +163,7 @@
     <t>44,43%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -196,7 +196,7 @@
     <t>15,96%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -229,7 +229,7 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -262,43 +262,70 @@
     <t>12,4%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>95,86%</t>
@@ -535,223 +562,259 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
     <t>19,6%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>94,26%</t>
@@ -772,9 +835,6 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
     <t>92,17%</t>
   </si>
   <si>
@@ -797,9 +857,6 @@
   </si>
   <si>
     <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -1217,8 +1274,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F0CAC1-F0E1-4574-844A-2F423458F38C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A895B52-9D30-4D0C-9DCB-BD86307D0597}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2110,46 +2167,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>27565</v>
+        <v>12486</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27</v>
+      </c>
+      <c r="I19" s="7">
+        <v>24723</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>47</v>
-      </c>
-      <c r="I19" s="7">
-        <v>47950</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
+        <v>39</v>
+      </c>
+      <c r="N19" s="7">
+        <v>37208</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>75</v>
-      </c>
-      <c r="N19" s="7">
-        <v>75514</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -2161,49 +2218,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
+        <v>896</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
         <v>897</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1798</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,10 +2269,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>28466</v>
+        <v>12486</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2227,10 +2284,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>48847</v>
+        <v>25619</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2242,10 +2299,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N21" s="7">
-        <v>77312</v>
+        <v>38105</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2259,55 +2316,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>81936</v>
+        <v>15079</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7">
+        <v>23227</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>36</v>
+      </c>
+      <c r="N22" s="7">
+        <v>38306</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="7">
-        <v>114</v>
-      </c>
-      <c r="I22" s="7">
-        <v>113797</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="7">
-        <v>195</v>
-      </c>
-      <c r="N22" s="7">
-        <v>195734</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,49 +2373,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>3541</v>
+        <v>901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>5672</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>9213</v>
+        <v>901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,63 +2424,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>15980</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23227</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7">
+        <v>39207</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7">
+        <v>81936</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="7">
+        <v>114</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113797</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="7">
+        <v>195</v>
+      </c>
+      <c r="N25" s="7">
+        <v>195734</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3541</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5672</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>9213</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>84</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>85477</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>120</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>119469</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>204</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>204947</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2436,8 +2649,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880D0BCB-2ADF-4D99-B95B-D701AA319CF3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEF022-89F4-452B-8AD2-C20C8BD857C2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2453,7 +2666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2560,13 +2773,13 @@
         <v>4019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2578,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2590,13 +2803,13 @@
         <v>7900</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2824,13 @@
         <v>2547</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2632,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2641,13 +2854,13 @@
         <v>2547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2928,13 @@
         <v>11339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2730,10 +2943,10 @@
         <v>11543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2745,13 +2958,13 @@
         <v>22881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2979,13 @@
         <v>3818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2781,13 +2994,13 @@
         <v>904</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2796,13 +3009,13 @@
         <v>4723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,10 +3083,10 @@
         <v>15925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2888,7 +3101,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2900,10 +3113,10 @@
         <v>38072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2921,13 +3134,13 @@
         <v>1773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2942,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2951,13 +3164,13 @@
         <v>1773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,10 +3238,10 @@
         <v>29653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3040,10 +3253,10 @@
         <v>35664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3055,13 +3268,13 @@
         <v>65317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3289,13 @@
         <v>2086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3091,13 +3304,13 @@
         <v>2054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3106,13 +3319,13 @@
         <v>4140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3213,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3252,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3267,7 +3480,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,49 +3542,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>53428</v>
+        <v>22402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>80634</v>
+        <v>38965</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="N19" s="7">
-        <v>134062</v>
+        <v>61367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,19 +3593,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3407,22 +3620,22 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3644,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7">
-        <v>54431</v>
+        <v>22402</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3446,10 +3659,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7">
-        <v>80634</v>
+        <v>38965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3461,10 +3674,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="N21" s="7">
-        <v>135065</v>
+        <v>61367</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3478,55 +3691,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>129037</v>
+        <v>31026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>187136</v>
+        <v>41668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>316174</v>
+        <v>72694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3748,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>11226</v>
+        <v>1003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2959</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>14185</v>
+        <v>1003</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>188</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,63 +3799,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>32029</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>37</v>
+      </c>
+      <c r="I24" s="7">
+        <v>41668</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>65</v>
+      </c>
+      <c r="N24" s="7">
+        <v>73697</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>113</v>
+      </c>
+      <c r="D25" s="7">
+        <v>129037</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="7">
+        <v>171</v>
+      </c>
+      <c r="I25" s="7">
+        <v>187136</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="7">
+        <v>284</v>
+      </c>
+      <c r="N25" s="7">
+        <v>316174</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>11226</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" s="7">
+        <v>13</v>
+      </c>
+      <c r="N26" s="7">
+        <v>14185</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>123</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>140263</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>174</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>190095</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>297</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>330359</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3655,8 +4024,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0952C0C6-8D94-403D-AA25-2B7911F31DA1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F79E0D-3290-4ABC-9D69-A36F60924332}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3672,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3797,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3812,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3851,7 +4220,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3866,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,10 +4303,10 @@
         <v>7419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3952,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3964,10 +4333,10 @@
         <v>16557</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3985,13 +4354,13 @@
         <v>1655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4006,7 +4375,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4015,13 +4384,13 @@
         <v>1655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,10 +4473,10 @@
         <v>9027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4119,10 +4488,10 @@
         <v>21266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -4155,13 +4524,13 @@
         <v>1809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4170,13 +4539,13 @@
         <v>1809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +4613,10 @@
         <v>11365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4274,10 +4643,10 @@
         <v>23189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4295,13 +4664,13 @@
         <v>2797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4325,13 +4694,13 @@
         <v>2797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +4768,10 @@
         <v>23899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4414,10 +4783,10 @@
         <v>36067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4432,7 +4801,7 @@
         <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4450,13 +4819,13 @@
         <v>1166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4465,13 +4834,13 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4486,7 +4855,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,46 +4917,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>34428</v>
+        <v>17101</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>64229</v>
+        <v>23086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>98657</v>
+        <v>40187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4611,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4620,13 +4989,13 @@
         <v>973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4635,13 +5004,13 @@
         <v>973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,10 +5019,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>34428</v>
+        <v>17101</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4665,10 +5034,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I21" s="7">
-        <v>65202</v>
+        <v>24059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4680,10 +5049,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="N21" s="7">
-        <v>99630</v>
+        <v>41160</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4697,55 +5066,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>92292</v>
+        <v>17327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>134981</v>
+        <v>41143</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>227273</v>
+        <v>58470</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +5123,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>5618</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>3976</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>9594</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,63 +5174,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17327</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>41143</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>51</v>
+      </c>
+      <c r="N24" s="7">
+        <v>58470</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7">
+        <v>92292</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="7">
+        <v>117</v>
+      </c>
+      <c r="I25" s="7">
+        <v>134981</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="7">
+        <v>204</v>
+      </c>
+      <c r="N25" s="7">
+        <v>227273</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5618</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3976</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
+        <v>9594</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>91</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>97910</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>121</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>138957</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>212</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>236867</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
